--- a/圣鹏智慧物流平台项目需求文档/仓配一体化系统单据.xlsx
+++ b/圣鹏智慧物流平台项目需求文档/仓配一体化系统单据.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="468" windowWidth="14808" windowHeight="6756" tabRatio="855" firstSheet="33" activeTab="34"/>
+    <workbookView minimized="1" xWindow="240" yWindow="465" windowWidth="14805" windowHeight="6750" tabRatio="855"/>
   </bookViews>
   <sheets>
     <sheet name="货物托运单" sheetId="1" r:id="rId1"/>
@@ -59,7 +59,7 @@
     <author>作者</author>
   </authors>
   <commentList>
-    <comment ref="A10" authorId="0">
+    <comment ref="A10" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -85,7 +85,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="S10" authorId="0">
+    <comment ref="S10" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -111,7 +111,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A22" authorId="0">
+    <comment ref="A22" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -144,7 +144,7 @@
     <author>作者</author>
   </authors>
   <commentList>
-    <comment ref="H2" authorId="0">
+    <comment ref="H2" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -180,7 +180,7 @@
     <author>作者</author>
   </authors>
   <commentList>
-    <comment ref="B4" authorId="0">
+    <comment ref="B4" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -216,7 +216,7 @@
     <author>作者</author>
   </authors>
   <commentList>
-    <comment ref="G5" authorId="0">
+    <comment ref="G5" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -252,7 +252,7 @@
     <author>作者</author>
   </authors>
   <commentList>
-    <comment ref="C5" authorId="0">
+    <comment ref="C5" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -288,7 +288,7 @@
     <author>作者</author>
   </authors>
   <commentList>
-    <comment ref="A1" authorId="0">
+    <comment ref="A1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -303,7 +303,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A4" authorId="0">
+    <comment ref="A4" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -332,7 +332,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C5" authorId="0">
+    <comment ref="C5" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -360,7 +360,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D12" authorId="0">
+    <comment ref="D12" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -378,7 +378,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B13" authorId="0">
+    <comment ref="B13" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -395,7 +395,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D13" authorId="0">
+    <comment ref="D13" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -413,7 +413,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B14" authorId="0">
+    <comment ref="B14" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -452,7 +452,7 @@
     <author>作者</author>
   </authors>
   <commentList>
-    <comment ref="H5" authorId="0">
+    <comment ref="H5" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -488,7 +488,7 @@
     <author>作者</author>
   </authors>
   <commentList>
-    <comment ref="F5" authorId="0">
+    <comment ref="F5" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -5109,6 +5109,17 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="22" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="22" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -5151,17 +5162,6 @@
     <xf numFmtId="0" fontId="5" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="22" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="22" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -5171,6 +5171,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -5884,7 +5887,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -5926,7 +5929,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -5961,7 +5964,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -6172,44 +6175,44 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H42" sqref="H42"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="13.33203125" customWidth="1"/>
-    <col min="2" max="2" width="13.88671875" customWidth="1"/>
-    <col min="3" max="3" width="12.6640625" customWidth="1"/>
-    <col min="4" max="4" width="13.21875" customWidth="1"/>
+    <col min="1" max="1" width="13.375" customWidth="1"/>
+    <col min="2" max="2" width="13.875" customWidth="1"/>
+    <col min="3" max="3" width="12.625" customWidth="1"/>
+    <col min="4" max="4" width="13.25" customWidth="1"/>
     <col min="5" max="5" width="12" customWidth="1"/>
-    <col min="6" max="6" width="15.109375" customWidth="1"/>
+    <col min="6" max="6" width="15.125" customWidth="1"/>
     <col min="7" max="7" width="16" customWidth="1"/>
     <col min="8" max="8" width="13" customWidth="1"/>
-    <col min="9" max="9" width="15.88671875" customWidth="1"/>
-    <col min="10" max="10" width="16.88671875" customWidth="1"/>
-    <col min="11" max="11" width="26.21875" customWidth="1"/>
+    <col min="9" max="9" width="15.875" customWidth="1"/>
+    <col min="10" max="10" width="16.875" customWidth="1"/>
+    <col min="11" max="11" width="26.25" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="29.25" customHeight="1">
-      <c r="A1" s="157" t="s">
+      <c r="A1" s="162" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="157"/>
-      <c r="C1" s="157"/>
-      <c r="D1" s="157"/>
-      <c r="E1" s="157"/>
-      <c r="F1" s="157"/>
-      <c r="G1" s="157"/>
-      <c r="H1" s="157"/>
-      <c r="I1" s="157"/>
-      <c r="J1" s="157"/>
+      <c r="B1" s="162"/>
+      <c r="C1" s="162"/>
+      <c r="D1" s="162"/>
+      <c r="E1" s="162"/>
+      <c r="F1" s="162"/>
+      <c r="G1" s="162"/>
+      <c r="H1" s="162"/>
+      <c r="I1" s="162"/>
+      <c r="J1" s="162"/>
     </row>
     <row r="2" spans="1:13" ht="22.5" customHeight="1">
-      <c r="A2" s="156" t="s">
+      <c r="A2" s="161" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="156"/>
+      <c r="B2" s="161"/>
       <c r="C2" s="77"/>
       <c r="D2" t="s">
         <v>2</v>
@@ -6252,11 +6255,11 @@
       <c r="H3" t="s">
         <v>15</v>
       </c>
-      <c r="K3" s="158" t="s">
+      <c r="K3" s="163" t="s">
         <v>485</v>
       </c>
-      <c r="L3" s="158"/>
-      <c r="M3" s="158"/>
+      <c r="L3" s="163"/>
+      <c r="M3" s="163"/>
     </row>
     <row r="4" spans="1:13" ht="20.25" customHeight="1">
       <c r="A4" t="s">
@@ -6552,20 +6555,20 @@
       <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="2" max="12" width="13" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="19.5" customHeight="1">
-      <c r="B1" s="157" t="s">
+      <c r="B1" s="162" t="s">
         <v>170</v>
       </c>
-      <c r="C1" s="157"/>
-      <c r="D1" s="157"/>
-      <c r="E1" s="157"/>
-      <c r="F1" s="157"/>
-      <c r="G1" s="157"/>
+      <c r="C1" s="162"/>
+      <c r="D1" s="162"/>
+      <c r="E1" s="162"/>
+      <c r="F1" s="162"/>
+      <c r="G1" s="162"/>
     </row>
     <row r="2" spans="1:11" ht="19.5" customHeight="1">
       <c r="B2" t="s">
@@ -6735,22 +6738,22 @@
       <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="5" width="17.77734375" customWidth="1"/>
-    <col min="6" max="6" width="19.109375" customWidth="1"/>
-    <col min="7" max="17" width="17.77734375" customWidth="1"/>
+    <col min="1" max="5" width="17.75" customWidth="1"/>
+    <col min="6" max="6" width="19.125" customWidth="1"/>
+    <col min="7" max="17" width="17.75" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="24" customHeight="1">
-      <c r="A1" s="160" t="s">
+      <c r="A1" s="165" t="s">
         <v>575</v>
       </c>
-      <c r="B1" s="160"/>
-      <c r="C1" s="160"/>
-      <c r="D1" s="160"/>
-      <c r="E1" s="160"/>
-      <c r="F1" s="160"/>
+      <c r="B1" s="165"/>
+      <c r="C1" s="165"/>
+      <c r="D1" s="165"/>
+      <c r="E1" s="165"/>
+      <c r="F1" s="165"/>
       <c r="G1" t="s">
         <v>576</v>
       </c>
@@ -6974,20 +6977,20 @@
       <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="14" width="16" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="33.75" customHeight="1">
-      <c r="A1" s="166" t="s">
+      <c r="A1" s="171" t="s">
         <v>201</v>
       </c>
-      <c r="B1" s="166"/>
-      <c r="C1" s="166"/>
-      <c r="D1" s="166"/>
-      <c r="E1" s="166"/>
-      <c r="F1" s="166"/>
+      <c r="B1" s="171"/>
+      <c r="C1" s="171"/>
+      <c r="D1" s="171"/>
+      <c r="E1" s="171"/>
+      <c r="F1" s="171"/>
     </row>
     <row r="2" spans="1:6" ht="23.25" customHeight="1">
       <c r="A2" s="1" t="s">
@@ -7151,22 +7154,22 @@
       <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="5" customWidth="1"/>
     <col min="2" max="2" width="12" customWidth="1"/>
     <col min="3" max="10" width="15" customWidth="1"/>
-    <col min="11" max="11" width="15.21875" customWidth="1"/>
+    <col min="11" max="11" width="15.25" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="36" customHeight="1">
-      <c r="B1" s="157" t="s">
+      <c r="B1" s="162" t="s">
         <v>227</v>
       </c>
-      <c r="C1" s="157"/>
-      <c r="D1" s="157"/>
-      <c r="E1" s="157"/>
-      <c r="F1" s="157"/>
+      <c r="C1" s="162"/>
+      <c r="D1" s="162"/>
+      <c r="E1" s="162"/>
+      <c r="F1" s="162"/>
     </row>
     <row r="2" spans="1:11" ht="19.5" customHeight="1">
       <c r="B2" t="s">
@@ -7358,27 +7361,27 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O48"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A13" workbookViewId="0">
       <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="17" width="17.6640625" customWidth="1"/>
+    <col min="1" max="17" width="17.625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="33.75" customHeight="1">
-      <c r="A1" s="160" t="s">
+      <c r="A1" s="165" t="s">
         <v>241</v>
       </c>
-      <c r="B1" s="160"/>
-      <c r="C1" s="160"/>
-      <c r="D1" s="160"/>
-      <c r="E1" s="160"/>
-      <c r="F1" s="160"/>
-      <c r="G1" s="160"/>
-      <c r="H1" s="160"/>
-      <c r="I1" s="160"/>
+      <c r="B1" s="165"/>
+      <c r="C1" s="165"/>
+      <c r="D1" s="165"/>
+      <c r="E1" s="165"/>
+      <c r="F1" s="165"/>
+      <c r="G1" s="165"/>
+      <c r="H1" s="165"/>
+      <c r="I1" s="165"/>
     </row>
     <row r="2" spans="1:15" ht="22.5" customHeight="1">
       <c r="A2" t="s">
@@ -7635,29 +7638,29 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P40"/>
   <sheetViews>
-    <sheetView topLeftCell="F55" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+    <sheetView topLeftCell="A49" workbookViewId="0">
+      <selection activeCell="I78" sqref="I78"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="4.88671875" customWidth="1"/>
-    <col min="2" max="2" width="15.88671875" customWidth="1"/>
-    <col min="3" max="15" width="16.77734375" customWidth="1"/>
-    <col min="16" max="16" width="12.33203125" customWidth="1"/>
+    <col min="1" max="1" width="4.875" customWidth="1"/>
+    <col min="2" max="2" width="15.875" customWidth="1"/>
+    <col min="3" max="15" width="16.75" customWidth="1"/>
+    <col min="16" max="16" width="12.375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="27.75" customHeight="1">
-      <c r="B1" s="161" t="s">
+      <c r="B1" s="166" t="s">
         <v>247</v>
       </c>
-      <c r="C1" s="161"/>
-      <c r="D1" s="161"/>
-      <c r="E1" s="161"/>
-      <c r="F1" s="161"/>
-      <c r="G1" s="161"/>
-      <c r="H1" s="161"/>
-      <c r="I1" s="161"/>
+      <c r="C1" s="166"/>
+      <c r="D1" s="166"/>
+      <c r="E1" s="166"/>
+      <c r="F1" s="166"/>
+      <c r="G1" s="166"/>
+      <c r="H1" s="166"/>
+      <c r="I1" s="166"/>
     </row>
     <row r="2" spans="1:16" ht="15.75" customHeight="1">
       <c r="B2" t="s">
@@ -7951,9 +7954,9 @@
       <c r="G16" s="57" t="s">
         <v>284</v>
       </c>
-      <c r="H16" s="167"/>
-      <c r="I16" s="167"/>
-      <c r="J16" s="167"/>
+      <c r="H16" s="172"/>
+      <c r="I16" s="172"/>
+      <c r="J16" s="172"/>
     </row>
     <row r="17" spans="2:10" ht="15.75" customHeight="1">
       <c r="B17" s="38" t="s">
@@ -7964,9 +7967,9 @@
       <c r="E17" s="1"/>
       <c r="F17" s="1"/>
       <c r="G17" s="1"/>
-      <c r="H17" s="167"/>
-      <c r="I17" s="167"/>
-      <c r="J17" s="167"/>
+      <c r="H17" s="172"/>
+      <c r="I17" s="172"/>
+      <c r="J17" s="172"/>
     </row>
     <row r="18" spans="2:10" ht="18.75" customHeight="1">
       <c r="B18" s="1"/>
@@ -7975,9 +7978,9 @@
       <c r="E18" s="1"/>
       <c r="F18" s="1"/>
       <c r="G18" s="1"/>
-      <c r="H18" s="167"/>
-      <c r="I18" s="167"/>
-      <c r="J18" s="167"/>
+      <c r="H18" s="172"/>
+      <c r="I18" s="172"/>
+      <c r="J18" s="172"/>
     </row>
     <row r="19" spans="2:10" ht="18.75" customHeight="1">
       <c r="B19" s="1"/>
@@ -7986,9 +7989,9 @@
       <c r="E19" s="1"/>
       <c r="F19" s="1"/>
       <c r="G19" s="1"/>
-      <c r="H19" s="167"/>
-      <c r="I19" s="167"/>
-      <c r="J19" s="167"/>
+      <c r="H19" s="172"/>
+      <c r="I19" s="172"/>
+      <c r="J19" s="172"/>
     </row>
     <row r="20" spans="2:10" ht="18.75" customHeight="1">
       <c r="B20" s="1"/>
@@ -7997,9 +8000,9 @@
       <c r="E20" s="1"/>
       <c r="F20" s="1"/>
       <c r="G20" s="1"/>
-      <c r="H20" s="167"/>
-      <c r="I20" s="167"/>
-      <c r="J20" s="167"/>
+      <c r="H20" s="172"/>
+      <c r="I20" s="172"/>
+      <c r="J20" s="172"/>
     </row>
     <row r="21" spans="2:10" ht="18.75" customHeight="1">
       <c r="B21" s="1"/>
@@ -8008,9 +8011,9 @@
       <c r="E21" s="1"/>
       <c r="F21" s="1"/>
       <c r="G21" s="1"/>
-      <c r="H21" s="167"/>
-      <c r="I21" s="167"/>
-      <c r="J21" s="167"/>
+      <c r="H21" s="172"/>
+      <c r="I21" s="172"/>
+      <c r="J21" s="172"/>
     </row>
     <row r="22" spans="2:10" ht="18.75" customHeight="1">
       <c r="B22" s="1"/>
@@ -8019,9 +8022,9 @@
       <c r="E22" s="1"/>
       <c r="F22" s="1"/>
       <c r="G22" s="1"/>
-      <c r="H22" s="167"/>
-      <c r="I22" s="167"/>
-      <c r="J22" s="167"/>
+      <c r="H22" s="172"/>
+      <c r="I22" s="172"/>
+      <c r="J22" s="172"/>
     </row>
     <row r="23" spans="2:10" ht="18.75" customHeight="1">
       <c r="B23" s="1"/>
@@ -8030,9 +8033,9 @@
       <c r="E23" s="1"/>
       <c r="F23" s="1"/>
       <c r="G23" s="1"/>
-      <c r="H23" s="167"/>
-      <c r="I23" s="167"/>
-      <c r="J23" s="167"/>
+      <c r="H23" s="172"/>
+      <c r="I23" s="172"/>
+      <c r="J23" s="172"/>
     </row>
     <row r="24" spans="2:10" ht="18.75" customHeight="1">
       <c r="B24" s="1"/>
@@ -8041,9 +8044,9 @@
       <c r="E24" s="1"/>
       <c r="F24" s="1"/>
       <c r="G24" s="1"/>
-      <c r="H24" s="167"/>
-      <c r="I24" s="167"/>
-      <c r="J24" s="167"/>
+      <c r="H24" s="172"/>
+      <c r="I24" s="172"/>
+      <c r="J24" s="172"/>
     </row>
     <row r="25" spans="2:10" ht="18.75" customHeight="1">
       <c r="B25" s="1"/>
@@ -8052,9 +8055,9 @@
       <c r="E25" s="1"/>
       <c r="F25" s="1"/>
       <c r="G25" s="1"/>
-      <c r="H25" s="167"/>
-      <c r="I25" s="167"/>
-      <c r="J25" s="167"/>
+      <c r="H25" s="172"/>
+      <c r="I25" s="172"/>
+      <c r="J25" s="172"/>
     </row>
     <row r="26" spans="2:10" ht="20.25" customHeight="1">
       <c r="B26" s="21" t="s">
@@ -8260,23 +8263,23 @@
       <selection activeCell="N7" sqref="N7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="4.44140625" customWidth="1"/>
+    <col min="1" max="1" width="4.5" customWidth="1"/>
     <col min="2" max="21" width="17" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="32.25" customHeight="1">
-      <c r="B1" s="168" t="s">
+      <c r="B1" s="173" t="s">
         <v>303</v>
       </c>
-      <c r="C1" s="168"/>
-      <c r="D1" s="168"/>
-      <c r="E1" s="168"/>
-      <c r="F1" s="168"/>
-      <c r="G1" s="168"/>
-      <c r="H1" s="168"/>
-      <c r="I1" s="168"/>
+      <c r="C1" s="173"/>
+      <c r="D1" s="173"/>
+      <c r="E1" s="173"/>
+      <c r="F1" s="173"/>
+      <c r="G1" s="173"/>
+      <c r="H1" s="173"/>
+      <c r="I1" s="173"/>
     </row>
     <row r="2" spans="1:14" ht="18.75" customHeight="1">
       <c r="B2" s="7" t="s">
@@ -8501,23 +8504,23 @@
       <selection activeCell="J26" sqref="J26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="5.33203125" customWidth="1"/>
+    <col min="1" max="1" width="5.375" customWidth="1"/>
     <col min="2" max="15" width="17" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="32.25" customHeight="1">
-      <c r="B1" s="168" t="s">
+      <c r="B1" s="173" t="s">
         <v>322</v>
       </c>
-      <c r="C1" s="168"/>
-      <c r="D1" s="168"/>
-      <c r="E1" s="168"/>
-      <c r="F1" s="168"/>
-      <c r="G1" s="168"/>
-      <c r="H1" s="168"/>
-      <c r="I1" s="168"/>
+      <c r="C1" s="173"/>
+      <c r="D1" s="173"/>
+      <c r="E1" s="173"/>
+      <c r="F1" s="173"/>
+      <c r="G1" s="173"/>
+      <c r="H1" s="173"/>
+      <c r="I1" s="173"/>
     </row>
     <row r="2" spans="1:14" ht="21" customHeight="1">
       <c r="B2" s="7" t="s">
@@ -8758,22 +8761,22 @@
       <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="16" width="17.21875" customWidth="1"/>
-    <col min="17" max="17" width="20.21875" customWidth="1"/>
+    <col min="1" max="16" width="17.25" customWidth="1"/>
+    <col min="17" max="17" width="20.25" customWidth="1"/>
     <col min="18" max="18" width="21" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="29.25" customHeight="1">
-      <c r="A1" s="160" t="s">
+      <c r="A1" s="165" t="s">
         <v>349</v>
       </c>
-      <c r="B1" s="160"/>
-      <c r="C1" s="160"/>
-      <c r="D1" s="160"/>
-      <c r="E1" s="160"/>
-      <c r="F1" s="160"/>
+      <c r="B1" s="165"/>
+      <c r="C1" s="165"/>
+      <c r="D1" s="165"/>
+      <c r="E1" s="165"/>
+      <c r="F1" s="165"/>
     </row>
     <row r="2" spans="1:18" s="17" customFormat="1" ht="18.75" customHeight="1">
       <c r="A2" s="17" t="s">
@@ -9048,21 +9051,21 @@
       <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="5.77734375" customWidth="1"/>
-    <col min="2" max="20" width="19.33203125" customWidth="1"/>
+    <col min="1" max="1" width="5.75" customWidth="1"/>
+    <col min="2" max="20" width="19.375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="32.25" customHeight="1">
-      <c r="B1" s="160" t="s">
+      <c r="B1" s="165" t="s">
         <v>371</v>
       </c>
-      <c r="C1" s="160"/>
-      <c r="D1" s="160"/>
-      <c r="E1" s="160"/>
-      <c r="F1" s="160"/>
-      <c r="G1" s="160"/>
+      <c r="C1" s="165"/>
+      <c r="D1" s="165"/>
+      <c r="E1" s="165"/>
+      <c r="F1" s="165"/>
+      <c r="G1" s="165"/>
     </row>
     <row r="2" spans="1:21" ht="21" customHeight="1">
       <c r="B2" s="17" t="s">
@@ -9374,30 +9377,30 @@
       <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="2" max="14" width="13.44140625" customWidth="1"/>
-    <col min="15" max="15" width="10.88671875" customWidth="1"/>
+    <col min="2" max="14" width="13.5" customWidth="1"/>
+    <col min="15" max="15" width="10.875" customWidth="1"/>
     <col min="16" max="16" width="13" customWidth="1"/>
     <col min="17" max="17" width="9" customWidth="1"/>
-    <col min="18" max="18" width="10.21875" customWidth="1"/>
+    <col min="18" max="18" width="10.25" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="38.25" customHeight="1">
-      <c r="B1" s="160" t="s">
+      <c r="B1" s="165" t="s">
         <v>38</v>
       </c>
-      <c r="C1" s="160"/>
-      <c r="D1" s="160"/>
-      <c r="E1" s="160"/>
-      <c r="F1" s="160"/>
-      <c r="G1" s="160"/>
-      <c r="H1" s="160"/>
-      <c r="I1" s="160"/>
-      <c r="J1" s="160"/>
-      <c r="K1" s="160"/>
-      <c r="L1" s="160"/>
-      <c r="M1" s="160"/>
+      <c r="C1" s="165"/>
+      <c r="D1" s="165"/>
+      <c r="E1" s="165"/>
+      <c r="F1" s="165"/>
+      <c r="G1" s="165"/>
+      <c r="H1" s="165"/>
+      <c r="I1" s="165"/>
+      <c r="J1" s="165"/>
+      <c r="K1" s="165"/>
+      <c r="L1" s="165"/>
+      <c r="M1" s="165"/>
     </row>
     <row r="2" spans="1:25" s="3" customFormat="1" ht="21.75" customHeight="1">
       <c r="B2" s="2" t="s">
@@ -9441,10 +9444,10 @@
       <c r="J3" s="110"/>
     </row>
     <row r="4" spans="1:25" s="108" customFormat="1" ht="21.75" hidden="1" customHeight="1">
-      <c r="B4" s="159" t="s">
+      <c r="B4" s="164" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="159"/>
+      <c r="C4" s="164"/>
       <c r="D4" s="108" t="s">
         <v>2</v>
       </c>
@@ -9566,31 +9569,31 @@
       <c r="P10" s="112" t="s">
         <v>581</v>
       </c>
-      <c r="Q10" s="170" t="s">
+      <c r="Q10" s="156" t="s">
         <v>594</v>
       </c>
-      <c r="R10" s="170" t="s">
+      <c r="R10" s="156" t="s">
         <v>595</v>
       </c>
-      <c r="S10" s="171" t="s">
+      <c r="S10" s="157" t="s">
         <v>596</v>
       </c>
-      <c r="T10" s="172" t="s">
+      <c r="T10" s="158" t="s">
         <v>599</v>
       </c>
-      <c r="U10" s="170" t="s">
+      <c r="U10" s="156" t="s">
         <v>597</v>
       </c>
-      <c r="V10" s="170" t="s">
+      <c r="V10" s="156" t="s">
         <v>598</v>
       </c>
-      <c r="W10" s="170" t="s">
+      <c r="W10" s="156" t="s">
         <v>892</v>
       </c>
-      <c r="X10" s="170" t="s">
+      <c r="X10" s="156" t="s">
         <v>893</v>
       </c>
-      <c r="Y10" s="170" t="s">
+      <c r="Y10" s="156" t="s">
         <v>894</v>
       </c>
     </row>
@@ -9819,41 +9822,41 @@
       </c>
     </row>
     <row r="21" spans="1:13" ht="21.75" customHeight="1">
-      <c r="B21" s="173" t="s">
+      <c r="B21" s="159" t="s">
         <v>49</v>
       </c>
-      <c r="C21" s="173" t="s">
+      <c r="C21" s="159" t="s">
         <v>50</v>
       </c>
-      <c r="D21" s="173" t="s">
+      <c r="D21" s="159" t="s">
         <v>51</v>
       </c>
-      <c r="E21" s="173" t="s">
+      <c r="E21" s="159" t="s">
         <v>52</v>
       </c>
-      <c r="F21" s="173" t="s">
+      <c r="F21" s="159" t="s">
         <v>53</v>
       </c>
-      <c r="G21" s="173" t="s">
+      <c r="G21" s="159" t="s">
         <v>54</v>
       </c>
-      <c r="H21" s="173" t="s">
+      <c r="H21" s="159" t="s">
         <v>55</v>
       </c>
-      <c r="I21" s="173" t="s">
+      <c r="I21" s="159" t="s">
         <v>56</v>
       </c>
-      <c r="J21" s="173"/>
-      <c r="K21" s="173" t="s">
+      <c r="J21" s="159"/>
+      <c r="K21" s="159" t="s">
         <v>57</v>
       </c>
-      <c r="L21" s="173"/>
-      <c r="M21" s="173" t="s">
+      <c r="L21" s="159"/>
+      <c r="M21" s="159" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="22" spans="1:13" ht="21.75" customHeight="1">
-      <c r="A22" s="174" t="s">
+      <c r="A22" s="160" t="s">
         <v>912</v>
       </c>
       <c r="B22" s="1"/>
@@ -9926,25 +9929,25 @@
       <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="5.109375" customWidth="1"/>
-    <col min="2" max="13" width="15.44140625" customWidth="1"/>
-    <col min="14" max="18" width="13.44140625" customWidth="1"/>
-    <col min="19" max="44" width="12.109375" customWidth="1"/>
+    <col min="1" max="1" width="5.125" customWidth="1"/>
+    <col min="2" max="13" width="15.5" customWidth="1"/>
+    <col min="14" max="18" width="13.5" customWidth="1"/>
+    <col min="19" max="44" width="12.125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:44" ht="30" customHeight="1">
-      <c r="B1" s="168" t="s">
+      <c r="B1" s="173" t="s">
         <v>464</v>
       </c>
-      <c r="C1" s="168"/>
-      <c r="D1" s="168"/>
-      <c r="E1" s="168"/>
-      <c r="F1" s="168"/>
-      <c r="G1" s="168"/>
-      <c r="H1" s="168"/>
-      <c r="I1" s="168"/>
+      <c r="C1" s="173"/>
+      <c r="D1" s="173"/>
+      <c r="E1" s="173"/>
+      <c r="F1" s="173"/>
+      <c r="G1" s="173"/>
+      <c r="H1" s="173"/>
+      <c r="I1" s="173"/>
     </row>
     <row r="2" spans="1:44" ht="20.25" customHeight="1">
       <c r="B2" s="25" t="s">
@@ -10006,7 +10009,7 @@
       <c r="H4" s="19"/>
       <c r="I4" s="19"/>
     </row>
-    <row r="5" spans="1:44" s="80" customFormat="1" ht="24.9" customHeight="1">
+    <row r="5" spans="1:44" s="80" customFormat="1" ht="24.95" customHeight="1">
       <c r="A5" s="84" t="s">
         <v>445</v>
       </c>
@@ -10429,13 +10432,13 @@
       <c r="C12" s="73" t="s">
         <v>447</v>
       </c>
-      <c r="D12" s="169" t="s">
+      <c r="D12" s="174" t="s">
         <v>463</v>
       </c>
-      <c r="E12" s="169"/>
-      <c r="F12" s="169"/>
-      <c r="G12" s="169"/>
-      <c r="H12" s="169"/>
+      <c r="E12" s="174"/>
+      <c r="F12" s="174"/>
+      <c r="G12" s="174"/>
+      <c r="H12" s="174"/>
     </row>
     <row r="13" spans="1:44" s="71" customFormat="1" ht="20.25" customHeight="1">
       <c r="A13" s="86">
@@ -10547,25 +10550,25 @@
       <selection activeCell="M14" sqref="M14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="5.21875" customWidth="1"/>
-    <col min="2" max="2" width="11.88671875" customWidth="1"/>
-    <col min="3" max="18" width="16.44140625" customWidth="1"/>
-    <col min="20" max="20" width="12.6640625" customWidth="1"/>
+    <col min="1" max="1" width="5.25" customWidth="1"/>
+    <col min="2" max="2" width="11.875" customWidth="1"/>
+    <col min="3" max="18" width="16.5" customWidth="1"/>
+    <col min="20" max="20" width="12.625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:20" ht="34.5" customHeight="1">
-      <c r="B1" s="168" t="s">
+      <c r="B1" s="173" t="s">
         <v>466</v>
       </c>
-      <c r="C1" s="168"/>
-      <c r="D1" s="168"/>
-      <c r="E1" s="168"/>
-      <c r="F1" s="168"/>
-      <c r="G1" s="168"/>
-      <c r="H1" s="168"/>
-      <c r="I1" s="168"/>
+      <c r="C1" s="173"/>
+      <c r="D1" s="173"/>
+      <c r="E1" s="173"/>
+      <c r="F1" s="173"/>
+      <c r="G1" s="173"/>
+      <c r="H1" s="173"/>
+      <c r="I1" s="173"/>
     </row>
     <row r="2" spans="1:20" ht="25.5" customHeight="1">
       <c r="B2" s="25" t="s">
@@ -10650,7 +10653,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="6" spans="1:20" s="78" customFormat="1" ht="24.9" customHeight="1">
+    <row r="6" spans="1:20" s="78" customFormat="1" ht="24.95" customHeight="1">
       <c r="A6" s="91" t="s">
         <v>321</v>
       </c>
@@ -11121,28 +11124,28 @@
       <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="9.6640625" customWidth="1"/>
-    <col min="2" max="6" width="21.77734375" customWidth="1"/>
-    <col min="7" max="7" width="11.6640625" customWidth="1"/>
-    <col min="8" max="8" width="9.6640625" customWidth="1"/>
-    <col min="9" max="9" width="10.33203125" customWidth="1"/>
-    <col min="10" max="10" width="11.88671875" customWidth="1"/>
+    <col min="1" max="1" width="9.625" customWidth="1"/>
+    <col min="2" max="6" width="21.75" customWidth="1"/>
+    <col min="7" max="7" width="11.625" customWidth="1"/>
+    <col min="8" max="8" width="9.625" customWidth="1"/>
+    <col min="9" max="9" width="10.375" customWidth="1"/>
+    <col min="10" max="10" width="11.875" customWidth="1"/>
     <col min="11" max="15" width="10" customWidth="1"/>
-    <col min="16" max="17" width="8.6640625" customWidth="1"/>
-    <col min="18" max="18" width="8.33203125" customWidth="1"/>
-    <col min="19" max="20" width="7.88671875" customWidth="1"/>
+    <col min="16" max="17" width="8.625" customWidth="1"/>
+    <col min="18" max="18" width="8.375" customWidth="1"/>
+    <col min="19" max="20" width="7.875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:32" ht="27" customHeight="1">
-      <c r="B1" s="161" t="s">
+      <c r="B1" s="166" t="s">
         <v>619</v>
       </c>
-      <c r="C1" s="161"/>
-      <c r="D1" s="161"/>
-      <c r="E1" s="161"/>
-      <c r="F1" s="161"/>
+      <c r="C1" s="166"/>
+      <c r="D1" s="166"/>
+      <c r="E1" s="166"/>
+      <c r="F1" s="166"/>
     </row>
     <row r="2" spans="1:32" ht="22.5" customHeight="1">
       <c r="A2" t="s">
@@ -11511,22 +11514,22 @@
       <selection activeCell="W5" sqref="W5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="7" width="15.77734375" customWidth="1"/>
-    <col min="8" max="26" width="8.21875" customWidth="1"/>
+    <col min="1" max="7" width="15.75" customWidth="1"/>
+    <col min="8" max="26" width="8.25" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="27" customHeight="1">
-      <c r="A1" s="161" t="s">
+      <c r="A1" s="166" t="s">
         <v>653</v>
       </c>
-      <c r="B1" s="161"/>
-      <c r="C1" s="161"/>
-      <c r="D1" s="161"/>
-      <c r="E1" s="161"/>
-      <c r="F1" s="161"/>
-      <c r="G1" s="161"/>
+      <c r="B1" s="166"/>
+      <c r="C1" s="166"/>
+      <c r="D1" s="166"/>
+      <c r="E1" s="166"/>
+      <c r="F1" s="166"/>
+      <c r="G1" s="166"/>
     </row>
     <row r="2" spans="1:26" ht="23.25" customHeight="1">
       <c r="A2" t="s">
@@ -11863,26 +11866,26 @@
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="9" width="16.6640625" customWidth="1"/>
-    <col min="10" max="18" width="9.6640625" customWidth="1"/>
-    <col min="19" max="19" width="12.109375" customWidth="1"/>
-    <col min="20" max="20" width="9.6640625" customWidth="1"/>
-    <col min="21" max="21" width="11.6640625" customWidth="1"/>
-    <col min="22" max="22" width="10.6640625" customWidth="1"/>
+    <col min="1" max="9" width="16.625" customWidth="1"/>
+    <col min="10" max="18" width="9.625" customWidth="1"/>
+    <col min="19" max="19" width="12.125" customWidth="1"/>
+    <col min="20" max="20" width="9.625" customWidth="1"/>
+    <col min="21" max="21" width="11.625" customWidth="1"/>
+    <col min="22" max="22" width="10.625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="30.75" customHeight="1">
-      <c r="A1" s="161" t="s">
+      <c r="A1" s="166" t="s">
         <v>682</v>
       </c>
-      <c r="B1" s="161"/>
-      <c r="C1" s="161"/>
-      <c r="D1" s="161"/>
-      <c r="E1" s="161"/>
-      <c r="F1" s="161"/>
-      <c r="G1" s="161"/>
+      <c r="B1" s="166"/>
+      <c r="C1" s="166"/>
+      <c r="D1" s="166"/>
+      <c r="E1" s="166"/>
+      <c r="F1" s="166"/>
+      <c r="G1" s="166"/>
       <c r="H1" s="117"/>
     </row>
     <row r="2" spans="1:23" ht="19.5" customHeight="1">
@@ -12170,22 +12173,22 @@
       <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="2" max="19" width="15.6640625" customWidth="1"/>
+    <col min="2" max="19" width="15.625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="27" customHeight="1">
-      <c r="B1" s="161" t="s">
+      <c r="B1" s="166" t="s">
         <v>701</v>
       </c>
-      <c r="C1" s="161"/>
-      <c r="D1" s="161"/>
-      <c r="E1" s="161"/>
-      <c r="F1" s="161"/>
-      <c r="G1" s="161"/>
-      <c r="H1" s="161"/>
-      <c r="I1" s="161"/>
+      <c r="C1" s="166"/>
+      <c r="D1" s="166"/>
+      <c r="E1" s="166"/>
+      <c r="F1" s="166"/>
+      <c r="G1" s="166"/>
+      <c r="H1" s="166"/>
+      <c r="I1" s="166"/>
     </row>
     <row r="2" spans="1:9" s="25" customFormat="1" ht="22.5" customHeight="1">
       <c r="B2" s="25" t="s">
@@ -12337,23 +12340,23 @@
       <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="13" width="21.21875" customWidth="1"/>
-    <col min="17" max="17" width="11.77734375" customWidth="1"/>
+    <col min="1" max="13" width="21.25" customWidth="1"/>
+    <col min="17" max="17" width="11.75" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="21.75" customHeight="1">
-      <c r="A1" s="161" t="s">
+      <c r="A1" s="166" t="s">
         <v>712</v>
       </c>
-      <c r="B1" s="161"/>
-      <c r="C1" s="161"/>
-      <c r="D1" s="161"/>
-      <c r="E1" s="161"/>
-      <c r="F1" s="161"/>
-      <c r="G1" s="161"/>
-      <c r="H1" s="161"/>
+      <c r="B1" s="166"/>
+      <c r="C1" s="166"/>
+      <c r="D1" s="166"/>
+      <c r="E1" s="166"/>
+      <c r="F1" s="166"/>
+      <c r="G1" s="166"/>
+      <c r="H1" s="166"/>
     </row>
     <row r="2" spans="1:8" ht="21.75" customHeight="1">
       <c r="A2" s="25" t="s">
@@ -12484,24 +12487,24 @@
       <selection activeCell="M5" sqref="L5:M5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="7" width="12.77734375" customWidth="1"/>
-    <col min="8" max="8" width="19.21875" customWidth="1"/>
-    <col min="9" max="17" width="12.77734375" customWidth="1"/>
+    <col min="1" max="7" width="12.75" customWidth="1"/>
+    <col min="8" max="8" width="19.25" customWidth="1"/>
+    <col min="9" max="17" width="12.75" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="21.75" customHeight="1">
-      <c r="B1" s="161" t="s">
+      <c r="B1" s="166" t="s">
         <v>716</v>
       </c>
-      <c r="C1" s="161"/>
-      <c r="D1" s="161"/>
-      <c r="E1" s="161"/>
-      <c r="F1" s="161"/>
-      <c r="G1" s="161"/>
-      <c r="H1" s="161"/>
-      <c r="I1" s="161"/>
+      <c r="C1" s="166"/>
+      <c r="D1" s="166"/>
+      <c r="E1" s="166"/>
+      <c r="F1" s="166"/>
+      <c r="G1" s="166"/>
+      <c r="H1" s="166"/>
+      <c r="I1" s="166"/>
     </row>
     <row r="2" spans="1:13" ht="21.75" customHeight="1">
       <c r="A2" s="25"/>
@@ -12705,22 +12708,22 @@
       <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="17" width="14.88671875" customWidth="1"/>
+    <col min="1" max="17" width="14.875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="24.75" customHeight="1">
-      <c r="A1" s="161" t="s">
+      <c r="A1" s="166" t="s">
         <v>726</v>
       </c>
-      <c r="B1" s="161"/>
-      <c r="C1" s="161"/>
-      <c r="D1" s="161"/>
-      <c r="E1" s="161"/>
-      <c r="F1" s="161"/>
-      <c r="G1" s="161"/>
-      <c r="H1" s="161"/>
+      <c r="B1" s="166"/>
+      <c r="C1" s="166"/>
+      <c r="D1" s="166"/>
+      <c r="E1" s="166"/>
+      <c r="F1" s="166"/>
+      <c r="G1" s="166"/>
+      <c r="H1" s="166"/>
     </row>
     <row r="2" spans="1:8" ht="24.75" customHeight="1">
       <c r="A2" s="25" t="s">
@@ -12883,22 +12886,22 @@
       <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="17" width="16.44140625" customWidth="1"/>
+    <col min="1" max="17" width="16.5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="22.5" customHeight="1">
-      <c r="A1" s="161" t="s">
+      <c r="A1" s="166" t="s">
         <v>732</v>
       </c>
-      <c r="B1" s="161"/>
-      <c r="C1" s="161"/>
-      <c r="D1" s="161"/>
-      <c r="E1" s="161"/>
-      <c r="F1" s="161"/>
-      <c r="G1" s="161"/>
-      <c r="H1" s="161"/>
+      <c r="B1" s="166"/>
+      <c r="C1" s="166"/>
+      <c r="D1" s="166"/>
+      <c r="E1" s="166"/>
+      <c r="F1" s="166"/>
+      <c r="G1" s="166"/>
+      <c r="H1" s="166"/>
     </row>
     <row r="2" spans="1:8" ht="22.5" customHeight="1">
       <c r="A2" s="25" t="s">
@@ -13054,26 +13057,26 @@
       <selection activeCell="C13" sqref="C13:J13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="15.109375" customWidth="1"/>
-    <col min="2" max="2" width="13.21875" customWidth="1"/>
-    <col min="3" max="10" width="11.109375" customWidth="1"/>
+    <col min="1" max="1" width="15.125" customWidth="1"/>
+    <col min="2" max="2" width="13.25" customWidth="1"/>
+    <col min="3" max="10" width="11.125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="29.25" customHeight="1">
-      <c r="A1" s="161" t="s">
+      <c r="A1" s="166" t="s">
         <v>82</v>
       </c>
-      <c r="B1" s="161"/>
-      <c r="C1" s="161"/>
-      <c r="D1" s="161"/>
-      <c r="E1" s="161"/>
-      <c r="F1" s="161"/>
-      <c r="G1" s="161"/>
-      <c r="H1" s="161"/>
-      <c r="I1" s="161"/>
-      <c r="J1" s="161"/>
+      <c r="B1" s="166"/>
+      <c r="C1" s="166"/>
+      <c r="D1" s="166"/>
+      <c r="E1" s="166"/>
+      <c r="F1" s="166"/>
+      <c r="G1" s="166"/>
+      <c r="H1" s="166"/>
+      <c r="I1" s="166"/>
+      <c r="J1" s="166"/>
     </row>
     <row r="2" spans="1:10" ht="20.25" customHeight="1">
       <c r="A2" s="12" t="s">
@@ -13239,16 +13242,16 @@
       <c r="J12" s="1"/>
     </row>
     <row r="13" spans="1:10" ht="20.25" customHeight="1">
-      <c r="C13" s="162" t="s">
+      <c r="C13" s="167" t="s">
         <v>605</v>
       </c>
-      <c r="D13" s="162"/>
-      <c r="E13" s="162"/>
-      <c r="F13" s="162"/>
-      <c r="G13" s="162"/>
-      <c r="H13" s="162"/>
-      <c r="I13" s="162"/>
-      <c r="J13" s="162"/>
+      <c r="D13" s="167"/>
+      <c r="E13" s="167"/>
+      <c r="F13" s="167"/>
+      <c r="G13" s="167"/>
+      <c r="H13" s="167"/>
+      <c r="I13" s="167"/>
+      <c r="J13" s="167"/>
     </row>
     <row r="14" spans="1:10" ht="20.25" customHeight="1"/>
     <row r="15" spans="1:10" ht="20.25" customHeight="1"/>
@@ -13270,24 +13273,24 @@
       <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="8.88671875" customWidth="1"/>
-    <col min="2" max="15" width="17.21875" customWidth="1"/>
+    <col min="1" max="1" width="8.875" customWidth="1"/>
+    <col min="2" max="15" width="17.25" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="21.75" customHeight="1">
-      <c r="B1" s="161" t="s">
+      <c r="B1" s="166" t="s">
         <v>737</v>
       </c>
-      <c r="C1" s="161"/>
-      <c r="D1" s="161"/>
-      <c r="E1" s="161"/>
-      <c r="F1" s="161"/>
-      <c r="G1" s="161"/>
-      <c r="H1" s="161"/>
-      <c r="I1" s="161"/>
-      <c r="J1" s="161"/>
+      <c r="C1" s="166"/>
+      <c r="D1" s="166"/>
+      <c r="E1" s="166"/>
+      <c r="F1" s="166"/>
+      <c r="G1" s="166"/>
+      <c r="H1" s="166"/>
+      <c r="I1" s="166"/>
+      <c r="J1" s="166"/>
     </row>
     <row r="2" spans="1:13" ht="21.75" customHeight="1">
       <c r="A2" s="25"/>
@@ -13523,30 +13526,30 @@
       <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="18.6640625" customWidth="1"/>
+    <col min="1" max="1" width="18.625" customWidth="1"/>
     <col min="2" max="2" width="17" customWidth="1"/>
-    <col min="3" max="3" width="17.33203125" customWidth="1"/>
-    <col min="4" max="4" width="18.6640625" customWidth="1"/>
-    <col min="5" max="5" width="11.77734375" customWidth="1"/>
-    <col min="6" max="6" width="12.109375" customWidth="1"/>
-    <col min="7" max="7" width="11.6640625" customWidth="1"/>
-    <col min="8" max="8" width="11.77734375" customWidth="1"/>
-    <col min="9" max="9" width="11.21875" customWidth="1"/>
-    <col min="10" max="10" width="10.21875" customWidth="1"/>
-    <col min="11" max="11" width="11.77734375" customWidth="1"/>
-    <col min="12" max="12" width="10.6640625" customWidth="1"/>
+    <col min="3" max="3" width="17.375" customWidth="1"/>
+    <col min="4" max="4" width="18.625" customWidth="1"/>
+    <col min="5" max="5" width="11.75" customWidth="1"/>
+    <col min="6" max="6" width="12.125" customWidth="1"/>
+    <col min="7" max="7" width="11.625" customWidth="1"/>
+    <col min="8" max="8" width="11.75" customWidth="1"/>
+    <col min="9" max="9" width="11.25" customWidth="1"/>
+    <col min="10" max="10" width="10.25" customWidth="1"/>
+    <col min="11" max="11" width="11.75" customWidth="1"/>
+    <col min="12" max="12" width="10.625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="34.5" customHeight="1">
-      <c r="A1" s="161" t="s">
+      <c r="A1" s="166" t="s">
         <v>751</v>
       </c>
-      <c r="B1" s="161"/>
-      <c r="C1" s="161"/>
-      <c r="D1" s="161"/>
-      <c r="E1" s="161"/>
+      <c r="B1" s="166"/>
+      <c r="C1" s="166"/>
+      <c r="D1" s="166"/>
+      <c r="E1" s="166"/>
     </row>
     <row r="2" spans="1:15" ht="21.75" customHeight="1">
       <c r="A2" t="s">
@@ -13765,24 +13768,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I22"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="14" width="18.44140625" customWidth="1"/>
+    <col min="1" max="14" width="18.5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="32.25" customHeight="1">
-      <c r="A1" s="168" t="s">
+      <c r="A1" s="173" t="s">
         <v>816</v>
       </c>
-      <c r="B1" s="168"/>
-      <c r="C1" s="168"/>
-      <c r="D1" s="168"/>
-      <c r="E1" s="168"/>
-      <c r="F1" s="168"/>
+      <c r="B1" s="173"/>
+      <c r="C1" s="173"/>
+      <c r="D1" s="173"/>
+      <c r="E1" s="173"/>
+      <c r="F1" s="173"/>
     </row>
     <row r="2" spans="1:9" s="7" customFormat="1" ht="23.25" customHeight="1">
       <c r="A2" s="7" t="s">
@@ -13912,19 +13915,19 @@
       <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="14" width="15.77734375" customWidth="1"/>
+    <col min="1" max="14" width="15.75" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="22.5" customHeight="1">
-      <c r="A1" s="161" t="s">
+      <c r="A1" s="166" t="s">
         <v>830</v>
       </c>
-      <c r="B1" s="161"/>
-      <c r="C1" s="161"/>
-      <c r="D1" s="161"/>
-      <c r="E1" s="161"/>
+      <c r="B1" s="166"/>
+      <c r="C1" s="166"/>
+      <c r="D1" s="166"/>
+      <c r="E1" s="166"/>
     </row>
     <row r="2" spans="1:5" ht="22.5" customHeight="1">
       <c r="A2" t="s">
@@ -14013,13 +14016,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="17" width="19.77734375" customWidth="1"/>
+    <col min="1" max="17" width="19.75" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="18" customHeight="1"/>
@@ -14058,26 +14061,26 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="7" width="16.77734375" customWidth="1"/>
-    <col min="8" max="11" width="15.88671875" customWidth="1"/>
-    <col min="12" max="13" width="11.77734375" customWidth="1"/>
+    <col min="1" max="7" width="16.75" customWidth="1"/>
+    <col min="8" max="11" width="15.875" customWidth="1"/>
+    <col min="12" max="13" width="11.75" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="24.75" customHeight="1">
-      <c r="A1" s="161" t="s">
+      <c r="A1" s="166" t="s">
         <v>851</v>
       </c>
-      <c r="B1" s="161"/>
-      <c r="C1" s="161"/>
-      <c r="D1" s="161"/>
-      <c r="E1" s="161"/>
-      <c r="F1" s="161"/>
+      <c r="B1" s="166"/>
+      <c r="C1" s="166"/>
+      <c r="D1" s="166"/>
+      <c r="E1" s="166"/>
+      <c r="F1" s="166"/>
     </row>
     <row r="2" spans="1:11" ht="24.75" customHeight="1">
       <c r="A2" t="s">
@@ -14305,21 +14308,21 @@
       <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="9" width="16.6640625" customWidth="1"/>
-    <col min="10" max="12" width="13.88671875" customWidth="1"/>
+    <col min="1" max="9" width="16.625" customWidth="1"/>
+    <col min="10" max="12" width="13.875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:11" ht="27.75" customHeight="1">
-      <c r="B1" s="161" t="s">
+      <c r="B1" s="166" t="s">
         <v>876</v>
       </c>
-      <c r="C1" s="161"/>
-      <c r="D1" s="161"/>
-      <c r="E1" s="161"/>
-      <c r="F1" s="161"/>
-      <c r="G1" s="161"/>
+      <c r="C1" s="166"/>
+      <c r="D1" s="166"/>
+      <c r="E1" s="166"/>
+      <c r="F1" s="166"/>
+      <c r="G1" s="166"/>
     </row>
     <row r="2" spans="2:11" ht="20.25" customHeight="1">
       <c r="B2" t="s">
@@ -14549,29 +14552,29 @@
       <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="14.77734375" customWidth="1"/>
-    <col min="2" max="8" width="20.109375" customWidth="1"/>
+    <col min="1" max="1" width="14.75" customWidth="1"/>
+    <col min="2" max="8" width="20.125" customWidth="1"/>
     <col min="9" max="9" width="13" customWidth="1"/>
     <col min="10" max="10" width="10" customWidth="1"/>
-    <col min="11" max="11" width="9.6640625" customWidth="1"/>
-    <col min="12" max="12" width="10.6640625" customWidth="1"/>
-    <col min="13" max="13" width="15.21875" customWidth="1"/>
-    <col min="14" max="14" width="12.21875" customWidth="1"/>
-    <col min="15" max="15" width="11.21875" customWidth="1"/>
+    <col min="11" max="11" width="9.625" customWidth="1"/>
+    <col min="12" max="12" width="10.625" customWidth="1"/>
+    <col min="13" max="13" width="15.25" customWidth="1"/>
+    <col min="14" max="14" width="12.25" customWidth="1"/>
+    <col min="15" max="15" width="11.25" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="29.25" customHeight="1">
-      <c r="A1" s="161" t="s">
+      <c r="A1" s="166" t="s">
         <v>791</v>
       </c>
-      <c r="B1" s="161"/>
-      <c r="C1" s="161"/>
-      <c r="D1" s="161"/>
-      <c r="E1" s="161"/>
-      <c r="F1" s="161"/>
-      <c r="G1" s="161"/>
+      <c r="B1" s="166"/>
+      <c r="C1" s="166"/>
+      <c r="D1" s="166"/>
+      <c r="E1" s="166"/>
+      <c r="F1" s="166"/>
+      <c r="G1" s="166"/>
       <c r="H1" s="92"/>
       <c r="I1" s="92"/>
     </row>
@@ -14804,20 +14807,20 @@
       <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="10" width="14.77734375" customWidth="1"/>
+    <col min="1" max="10" width="14.75" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="29.25" customHeight="1">
-      <c r="A1" s="161" t="s">
+      <c r="A1" s="166" t="s">
         <v>799</v>
       </c>
-      <c r="B1" s="161"/>
-      <c r="C1" s="161"/>
-      <c r="D1" s="161"/>
-      <c r="E1" s="161"/>
-      <c r="F1" s="161"/>
+      <c r="B1" s="166"/>
+      <c r="C1" s="166"/>
+      <c r="D1" s="166"/>
+      <c r="E1" s="166"/>
+      <c r="F1" s="166"/>
     </row>
     <row r="2" spans="1:6" ht="21.75" customHeight="1">
       <c r="A2" s="38" t="s">
@@ -14923,25 +14926,25 @@
       <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="7.44140625" customWidth="1"/>
-    <col min="2" max="2" width="12.88671875" customWidth="1"/>
-    <col min="3" max="16" width="16.109375" customWidth="1"/>
+    <col min="1" max="1" width="7.5" customWidth="1"/>
+    <col min="2" max="2" width="12.875" customWidth="1"/>
+    <col min="3" max="16" width="16.125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="21" customHeight="1">
-      <c r="C1" s="161" t="s">
+      <c r="C1" s="166" t="s">
         <v>809</v>
       </c>
-      <c r="D1" s="161"/>
-      <c r="E1" s="161"/>
-      <c r="F1" s="161"/>
-      <c r="G1" s="161"/>
-      <c r="H1" s="161"/>
-      <c r="I1" s="161"/>
-      <c r="J1" s="161"/>
-      <c r="K1" s="161"/>
+      <c r="D1" s="166"/>
+      <c r="E1" s="166"/>
+      <c r="F1" s="166"/>
+      <c r="G1" s="166"/>
+      <c r="H1" s="166"/>
+      <c r="I1" s="166"/>
+      <c r="J1" s="166"/>
+      <c r="K1" s="166"/>
     </row>
     <row r="2" spans="1:14" ht="21" customHeight="1">
       <c r="B2" s="25" t="s">
@@ -15172,30 +15175,30 @@
       <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="13.44140625" customWidth="1"/>
-    <col min="2" max="2" width="11.77734375" customWidth="1"/>
-    <col min="3" max="3" width="11.21875" customWidth="1"/>
-    <col min="4" max="4" width="12.88671875" customWidth="1"/>
-    <col min="5" max="10" width="11.21875" customWidth="1"/>
+    <col min="1" max="1" width="13.5" customWidth="1"/>
+    <col min="2" max="2" width="11.75" customWidth="1"/>
+    <col min="3" max="3" width="11.25" customWidth="1"/>
+    <col min="4" max="4" width="12.875" customWidth="1"/>
+    <col min="5" max="10" width="11.25" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="30.75" customHeight="1">
-      <c r="A1" s="161" t="s">
+      <c r="A1" s="166" t="s">
         <v>105</v>
       </c>
-      <c r="B1" s="161"/>
-      <c r="C1" s="161"/>
-      <c r="D1" s="161"/>
-      <c r="E1" s="161"/>
-      <c r="F1" s="161"/>
-      <c r="G1" s="161"/>
-      <c r="H1" s="161"/>
-      <c r="I1" s="161"/>
-      <c r="J1" s="161"/>
-    </row>
-    <row r="2" spans="1:10" ht="20.399999999999999">
+      <c r="B1" s="166"/>
+      <c r="C1" s="166"/>
+      <c r="D1" s="166"/>
+      <c r="E1" s="166"/>
+      <c r="F1" s="166"/>
+      <c r="G1" s="166"/>
+      <c r="H1" s="166"/>
+      <c r="I1" s="166"/>
+      <c r="J1" s="166"/>
+    </row>
+    <row r="2" spans="1:10" ht="20.25">
       <c r="A2" s="12" t="s">
         <v>81</v>
       </c>
@@ -15405,18 +15408,18 @@
       <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="14" width="20.44140625" customWidth="1"/>
+    <col min="1" max="14" width="20.5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="26.25" customHeight="1">
-      <c r="A1" s="168" t="s">
+      <c r="A1" s="173" t="s">
         <v>905</v>
       </c>
-      <c r="B1" s="168"/>
-      <c r="C1" s="168"/>
-      <c r="D1" s="168"/>
+      <c r="B1" s="173"/>
+      <c r="C1" s="173"/>
+      <c r="D1" s="173"/>
     </row>
     <row r="2" spans="1:5" ht="20.25" customHeight="1">
       <c r="A2" t="s">
@@ -15522,25 +15525,25 @@
   <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="K17" sqref="A9:K17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="17.44140625" customWidth="1"/>
-    <col min="2" max="2" width="17.21875" customWidth="1"/>
-    <col min="3" max="3" width="17.109375" customWidth="1"/>
-    <col min="4" max="4" width="16.109375" customWidth="1"/>
-    <col min="5" max="5" width="14.44140625" customWidth="1"/>
+    <col min="1" max="1" width="17.5" customWidth="1"/>
+    <col min="2" max="2" width="17.25" customWidth="1"/>
+    <col min="3" max="3" width="17.125" customWidth="1"/>
+    <col min="4" max="4" width="16.125" customWidth="1"/>
+    <col min="5" max="5" width="14.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="25.8">
-      <c r="A1" s="168" t="s">
+    <row r="1" spans="1:5" ht="25.5">
+      <c r="A1" s="173" t="s">
         <v>908</v>
       </c>
-      <c r="B1" s="168"/>
-      <c r="C1" s="168"/>
-      <c r="D1" s="168"/>
+      <c r="B1" s="173"/>
+      <c r="C1" s="173"/>
+      <c r="D1" s="173"/>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" t="s">
@@ -15640,33 +15643,33 @@
       <selection activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="9" width="12.21875" customWidth="1"/>
-    <col min="10" max="10" width="25.33203125" customWidth="1"/>
-    <col min="11" max="11" width="20.44140625" customWidth="1"/>
+    <col min="1" max="9" width="12.25" customWidth="1"/>
+    <col min="10" max="10" width="25.375" customWidth="1"/>
+    <col min="11" max="11" width="20.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="22.2">
-      <c r="A1" s="157" t="s">
+    <row r="1" spans="1:11" ht="22.5">
+      <c r="A1" s="162" t="s">
         <v>586</v>
       </c>
-      <c r="B1" s="157"/>
-      <c r="C1" s="157"/>
-      <c r="D1" s="157"/>
-      <c r="E1" s="157"/>
-      <c r="F1" s="157"/>
-      <c r="G1" s="157"/>
-      <c r="H1" s="157"/>
-      <c r="I1" s="157"/>
-      <c r="J1" s="157"/>
+      <c r="B1" s="162"/>
+      <c r="C1" s="162"/>
+      <c r="D1" s="162"/>
+      <c r="E1" s="162"/>
+      <c r="F1" s="162"/>
+      <c r="G1" s="162"/>
+      <c r="H1" s="162"/>
+      <c r="I1" s="162"/>
+      <c r="J1" s="162"/>
     </row>
     <row r="2" spans="1:11" ht="21" customHeight="1">
-      <c r="A2" s="156" t="s">
+      <c r="A2" s="161" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="156"/>
-      <c r="C2" s="156"/>
+      <c r="B2" s="161"/>
+      <c r="C2" s="161"/>
       <c r="D2" t="s">
         <v>889</v>
       </c>
@@ -15913,21 +15916,21 @@
       <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="14" customWidth="1"/>
-    <col min="2" max="2" width="15.109375" customWidth="1"/>
-    <col min="3" max="12" width="11.88671875" customWidth="1"/>
+    <col min="2" max="2" width="15.125" customWidth="1"/>
+    <col min="3" max="12" width="11.875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="22.5" customHeight="1">
-      <c r="A1" s="157" t="s">
+      <c r="A1" s="162" t="s">
         <v>128</v>
       </c>
-      <c r="B1" s="157"/>
-      <c r="C1" s="157"/>
-      <c r="D1" s="157"/>
-      <c r="E1" s="157"/>
+      <c r="B1" s="162"/>
+      <c r="C1" s="162"/>
+      <c r="D1" s="162"/>
+      <c r="E1" s="162"/>
     </row>
     <row r="2" spans="1:13" ht="23.25" customHeight="1">
       <c r="A2" s="20" t="s">
@@ -15948,10 +15951,10 @@
       <c r="G2" s="31" t="s">
         <v>137</v>
       </c>
-      <c r="H2" s="163" t="s">
+      <c r="H2" s="168" t="s">
         <v>387</v>
       </c>
-      <c r="I2" s="163"/>
+      <c r="I2" s="168"/>
     </row>
     <row r="3" spans="1:13" ht="19.5" customHeight="1">
       <c r="A3" t="s">
@@ -16118,19 +16121,19 @@
       <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="15" width="15.77734375" customWidth="1"/>
+    <col min="1" max="15" width="15.75" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="20.25" customHeight="1">
-      <c r="A1" s="157" t="s">
+      <c r="A1" s="162" t="s">
         <v>149</v>
       </c>
-      <c r="B1" s="157"/>
-      <c r="C1" s="157"/>
-      <c r="D1" s="157"/>
-      <c r="E1" s="157"/>
+      <c r="B1" s="162"/>
+      <c r="C1" s="162"/>
+      <c r="D1" s="162"/>
+      <c r="E1" s="162"/>
     </row>
     <row r="2" spans="1:11" s="30" customFormat="1" ht="20.25" customHeight="1">
       <c r="A2" s="32" t="s">
@@ -16321,21 +16324,21 @@
       <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="2" max="2" width="13.44140625" customWidth="1"/>
-    <col min="3" max="15" width="14.109375" customWidth="1"/>
+    <col min="2" max="2" width="13.5" customWidth="1"/>
+    <col min="3" max="15" width="14.125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="22.5" customHeight="1">
-      <c r="B1" s="157" t="s">
+      <c r="B1" s="162" t="s">
         <v>162</v>
       </c>
-      <c r="C1" s="157"/>
-      <c r="D1" s="157"/>
-      <c r="E1" s="157"/>
-      <c r="F1" s="157"/>
-      <c r="G1" s="157"/>
+      <c r="C1" s="162"/>
+      <c r="D1" s="162"/>
+      <c r="E1" s="162"/>
+      <c r="F1" s="162"/>
+      <c r="G1" s="162"/>
     </row>
     <row r="2" spans="1:12" s="19" customFormat="1" ht="25.5" customHeight="1">
       <c r="B2" s="32" t="s">
@@ -16488,10 +16491,10 @@
       <c r="L11" s="1"/>
     </row>
     <row r="12" spans="1:12" ht="21" customHeight="1">
-      <c r="A12" s="164" t="s">
+      <c r="A12" s="169" t="s">
         <v>97</v>
       </c>
-      <c r="B12" s="165"/>
+      <c r="B12" s="170"/>
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
       <c r="E12" s="1"/>
@@ -16532,7 +16535,7 @@
       <selection activeCell="P8" sqref="P8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
